--- a/biology/Botanique/Plaine_des_Tamarins/Plaine_des_Tamarins.xlsx
+++ b/biology/Botanique/Plaine_des_Tamarins/Plaine_des_Tamarins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La plaine des Tamarins est un plateau de l'île de La Réunion situé dans le sud-est du cirque de Mafate. Traversée par le GR R1, un sentier de grande randonnée qui relie les îlets de La Nouvelle et Marla au col des Bœufs et au col de Fourche, il est couvert par une forêt de tamarins des Hauts que l'on appelle forêt des Tamarins. Les nombreux arbres tombés et la brume lui donnent un caractère fantastique.
